--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5579,6 +5579,114 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>f07ebcce-b99c-46b7-8662-09683fff8122</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2026-02-07 22:43</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>aa868831-a321-45bc-bad6-ce98f4a59617</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2026-02-07 22:43</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>借用续期: test, 新归还日期: 2026-02-28</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>d3091691-97ca-46c7-8b2b-fa723471f96c</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2026-02-07 22:46</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>e36644a2-3ee7-41d8-8076-9e8233ed09a8</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2026-02-07 22:46</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>借用续期: test, 新归还日期: 2026-02-28</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5687,6 +5687,1044 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>43d25b04-43e3-45a7-bb96-fa40a945b3e5</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:35</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2b7bce3f-3d9e-4766-97d5-0131fbce40b3</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:35</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>用户借用: lan</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>04087274-f476-4523-ba54-b8ec2bfc88ed</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:37</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>a6b2bac6-a8bc-4604-9ee2-abb45f4800e8</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:37</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>用户归还: lan</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2fe2924c-289b-4368-9518-2af39a4b87fd</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:37</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>6bfd0726-174f-4c37-9bcf-c892f4a847ab</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:37</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>借用续期: lan, 新归还日期: 2026-02-09</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>06194ce3-8917-499a-8d86-a036a1617ea6</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:38</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>b3ffd30c-feb4-4561-bc91-620ac36a9f98</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:38</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>用户归还: lan</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>a87696b6-ee73-47a0-b26f-68be0baac1c0</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>手机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>b47e97ab-b2e9-46a2-b1d4-0144b812276b</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>用户借用: lan</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>手机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>e875ff02-bd43-40dd-bfda-f0501a66953c</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>手机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>cc675b5b-4b60-4c51-873a-af72b4ffaba7</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>转借：lan——&gt;summer</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>手机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>25ef8dc2-a5ea-4e5c-913a-4af06100e123</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>车机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>dbdacf17-a6f2-476f-8ab6-419d1173e614</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>设备找回: lan</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>车机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2f61e7a0-911f-40d8-882d-28150523df72</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:40</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>车机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>34bee091-4e4d-4f40-8cfb-0c21aed27877</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:40</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>损坏报备: lan</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>车机-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>69f697ae-e092-46d6-bd35-d00712e62b32</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:53</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>车机-TRANS-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>6bd8c63e-d029-4104-92e1-9a78c81cdf05</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:53</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>借用人未找到，设备转丢失: 车机-TRANS-001</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>车机-TRANS-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2fca0c42-dccc-454a-a935-78e9ad51ede1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:30</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>dd794f69-ce4c-48ef-ab33-c7ef51a78ab5</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:30</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>用户借用: summer2</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>b785f298-d34d-4a8f-9d3e-9a4432456a30</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:31</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>4e3a3f7d-7e8a-45d3-9507-0668323a0955</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:31</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>转借：summer2——&gt;lan</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>643102f9-f53f-42f5-b729-99f5fa13c2d8</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:31</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>853f99ce-cda6-492b-8d17-7785bc351969</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:31</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>被转借：lan——&gt;summer2</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>d989d84b-d6da-46fa-b999-3d154da73ed0</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:37</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>8550eb4f-54a6-437d-af94-8430946a69a3</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:37</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>未找到退回: summer2 -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>c233010b-0acb-42dd-9a23-71039fafe3a6</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:43</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ab8c8c61-ed99-4f36-991c-89b071de479b</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:43</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>未找到退回: test -&gt; summer</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>3a343bae-868e-4674-b43c-35a6f380b091</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:46</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>41fcb2d3-5d35-4640-9ab8-91d1f13edc8a</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:46</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>被转借：summer——&gt;test</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>38e0681b-a147-4a5c-a6be-373009405f76</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:59</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>fd105d99-b538-4a88-9816-a8e25762984d</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>用户归还: test</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>95114f20-4596-4970-9224-191bbda88763</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:06</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>设置管理员</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>65e02733-717a-4667-a010-e242d1fc48af</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:08</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>13986903203</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>强制借出登记: lan</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>b53a4f48-4862-4a43-a481-8ac9c1915146</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:33</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>74396923-7b7d-4dbb-930e-1351de73e775</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:33</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>转借：lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>0840bc06-1aa4-444f-af7e-87d6ad22e89d</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:34</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>823db7f8-ff5e-45bf-9c98-e4e15a9c25fe</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:34</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6725,6 +6725,311 @@
         </is>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>8015f62f-0154-4965-9db2-061bd62d0647</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2026-02-09 21:52</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>取消管理员</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>c47f5641-5de4-4229-ac57-4bd7046c1a6e</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2026-02-09 21:54</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>编辑用户</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>15a19037-da48-4a38-9ea9-c546f64f9b22</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2026-02-09 21:54</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>编辑用户</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1684ac10-815f-44c5-abec-3682ce608c9e</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:29</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>01c0e0ab-e1ca-40c7-bfb9-65e736d24a54</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:29</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>设备找回: test</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>eb6d6898-9a7d-4282-8a3d-8e678897a880</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:30</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>121af8c4-c039-4ece-9788-b7d5f3222a2a</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:30</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>报备丢失: test</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>a4a27d70-10f8-49ea-a349-4793bbc48500</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:30</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>835307ff-1cba-4d9c-9fb3-579f3b67f444</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:30</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>设备找回: test</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>9bebcdf1-b96a-456a-b2f2-e2bcfd9b22bf</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:32</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>71a532f9-7bc4-4200-a992-ce992c6d243f</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:32</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>报备损坏: test</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7030,6 +7030,90 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>509b64ca-4842-478e-b33c-0b4a4ec2a695</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:50</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>0d048134-a68d-48a5-bd46-69811f98f5b8</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:50</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>修复归还: test</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>7667d575-9fbf-4faa-92d7-deac99e99b62</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:52</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7114,6 +7114,7018 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>4cb7a3b0-bd7f-4470-a71b-904334cbd152</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:07</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>c73133b7-c165-428b-99d0-968450377114</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:07</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>190abb71-6b6c-40b6-b050-9cec2316a5c7</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:09</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>df5bcdc6-fd38-4f34-bd1e-1fa4ec9912c2</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:10</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>4802bba8-d3d3-43a5-87a4-9b90e4076074</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:10</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>0c1f442c-46e5-46a9-be9a-c3f4eac865e7</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:10</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>42e65aa1-d65e-4b0c-9345-20ba2c1f1cbe</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:10</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>94fa801c-cb18-4b24-b6f8-fe5b9a2a2437</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:18</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>e760e4bd-8f59-4c92-aa1e-9533004e800e</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:18</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>a06d9ecf-1d7a-4f21-b12e-b2567f8ffb42</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:19</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>AE- 
+ZXCL04-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>8d4aa241-97fd-4048-9fb6-1a7c10725222</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:19</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>AE- 
+ZXCL04-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>d0288e93-9c58-4cbb-a561-61f72c1b4856</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:20</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>AE- 
+SHHS02-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>499cee0c-e590-4faf-9c1e-6f10a2c945ac</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:20</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>AE- 
+SHHS02-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>33ee3ce6-b72f-41d2-a22b-953d6e64a96e</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:29</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1cee4314-36c5-4ad9-b7b0-67eaae89035e</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:29</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>a0e1b778-9a9a-4fd6-a3b5-2659eb41ffe1</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:30</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>357a9438-f600-49eb-92b8-5541fde26046</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:30</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>44f08943-2eba-4f84-b374-161454094c17</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:34</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>cae0d704-360d-4212-8606-da49740b278d</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:34</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>04822347-bce7-4cd0-8d6b-b74e42adfcb8</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:35</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>d9f36235-3ef5-4f04-bc05-582680802a01</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:35</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>c14ba75f-f0be-4c4a-aef3-627ef6f24669</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:36</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>df33248f-76db-4a65-aac8-293b6b83b4dd</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:36</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>156833e9-fae1-45a4-a7f8-6e43b473c8b3</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:41</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>d902add1-5f56-4af0-af0d-19a545065e4a</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:41</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>6360e26d-c391-4413-ab4a-64327d76946f</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:42</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>227c8388-746a-4f01-927f-f0947647163b</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:42</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ea81030f-0290-4c98-82bc-8fa203224c32</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:44</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>e299ab6e-723b-4278-a83e-527db2c4ada5</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:44</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>未找到标记丢失: lan</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>68d49acb-fce4-4343-b0b7-fd05c8dce1e8</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>cfbdaa6b-40c2-479b-b5cc-d1d7d953bac8</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>51a14b8f-5f29-4cfc-8c64-bad3227490be</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>8b03a8b8-9415-458a-8a78-ae757e0ec81f</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>03f5ffcd-952c-4337-8a59-7b8d95ade4b8</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>92a556ef-23a8-4429-9e34-07bbfc410038</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>5b441b26-5918-4fec-8a6b-bf5f71b10167</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:53</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>77f4aed0-6d0e-4edf-84cd-61f8abf79790</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:53</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>7186940c-d302-4d73-9aa9-413843b374b8</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:54</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>efd7893e-daf4-4455-a36d-be62d83b9b73</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:54</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>7f3a0495-6ee3-4013-a5b9-51028fcd1da9</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>fd9880e0-8b61-46ee-a2f0-0e65a6531208</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>未找到退回: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1e9ea593-b589-4e38-97a5-2576c68bf0f9</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>a5ed2fd4-57a5-480f-bd4d-3ac5c417cc98</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>fea3caf1-7428-440f-95da-6fb869ce6848</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:06</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>cbc287da-8ebb-43d3-b76a-fadf56eb6b86</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:06</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>0ae0b1f0-d743-4e47-b8d9-41e9b6f3b066</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:07</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>b3f30000-c800-42c8-8f8b-a287a0e8a9b7</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:07</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>0ebbb68f-fa93-48c9-91a8-d37beddd8197</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:17</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2f77b39c-6eab-43a3-993e-84a456f7c2c4</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:17</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>9fee74db-110c-472b-9902-8c7476787e37</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:19</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>e5325455-ab32-42eb-addd-ec3e05bd19da</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:19</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>0a63f284-10bd-4922-8af5-8c509702445a</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:20</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>d11342b6-d77d-4718-8289-2ad12f523681</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:20</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>d44676ae-2176-40ed-9999-8d4a95b161c4</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:22</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ac0f889e-0e50-4d5e-8523-c518b803ea25</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:22</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>7432a249-f1d0-4e9b-afbc-9e0e5b47f0d2</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:22</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>40aeaf42-d26a-4365-9de6-1f605d768b62</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:22</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ab550897-ae89-479f-be6f-1c085cd07eba</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:25</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>b0aa422b-58c6-4aa5-97db-aa36d6495de5</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:25</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>8a5ea17e-4dff-43c3-9d30-8b352022b04d</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:25</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>eab6f4a3-3799-46b0-8ec8-b716c1a1dc27</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:25</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>8f152543-27d4-4cd6-9ca8-fc29e7a42f64</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:26</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>374b571a-b0d0-49aa-b490-1800dd9eaaac</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:26</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>未找到退回: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>12bda35a-ccdf-42cd-9200-1575ca9441d6</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:27</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>e707b5d5-b78d-4665-bdc4-86e48ef406c1</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:27</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>9891210f-23e4-46e5-9824-495f7a769dcd</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:28</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>72fb3529-ac39-462e-b7a8-8e6407264f61</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:28</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>a4043a8b-9b81-4b96-beca-3527261c5ea6</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:30</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>576b9592-d32f-4529-b908-7e6054eee81f</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:30</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>c2c3c5ae-3b4a-4edd-936a-04242f1a31bb</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:30</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>6251f190-3fde-455b-a570-371069bc6785</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:30</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>8f6ffee0-fa5e-4f48-a27d-303074ff859a</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>a0f81c9f-15a3-453c-8104-ccfd332ae66f</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>报备丢失: lan</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>cb083e28-6744-4c79-9e38-3c1763ce0d75</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>c24b8f4c-1fab-4465-a699-d667777faa1c</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>设备找回: lan</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>3c6013dd-dac8-4456-8b3c-237d15176c17</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>c9f383ae-74aa-4e23-8ae0-8133b85ef328</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>报备损坏: lan</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>cbfd831f-2d57-4730-8347-e41f94350a80</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>728c154c-40b1-44ef-b818-cd107de4ed9c</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>设备修复: lan</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>4d82baec-d4c0-4552-825e-975977f9a921</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>88295df2-b36e-4b74-972f-0cf91570fdf5</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>251bbb67-d572-4b9f-95fb-6410bbac9f9e</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>3af7ece8-2354-4f03-a107-71c3f6b0d370</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>cc151b86-f5b6-4630-8d2d-0d0264ddaedd</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>c2a2202b-0f30-40dd-8206-90193b658b54</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>b9beb52d-7ac1-45df-8831-246ee78b9fbd</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>cb63a456-d5f0-4d3a-8454-1c43454d7d3d</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>f4efc606-0ca4-4a28-ae05-0efa4094e3a6</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:38</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>eff756dc-8e4e-4bb7-8344-db874c1c7992</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:38</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>未找到退回: lan -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>0d9066c1-2c09-4920-b85e-1f5bbd4e59cb</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:39</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>7ca32ad5-f427-4c94-be38-f83ed71cefc8</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:39</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>未找到标记丢失: lan</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2e001a9c-5bd7-4abc-a6dc-acaa3c9b6304</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:40</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>0630d6ea-f911-4ff9-bde5-81b107d4453e</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:40</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>设备找回: lan</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>af805805-bce4-41ea-b4d1-152c20ac10d6</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>cc055929-0da3-4970-b389-3cef26146690</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>转给自己:  -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>304e0ad0-6c1b-413e-9d2a-6cf1d672c919</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>0b87026e-0c56-4ea8-9a32-b39d939f947e</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>未找到标记丢失: lan</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>f319281c-6fac-4f20-8d2a-c56c488f97d9</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>88f5d6c9-6c5f-4fc0-8967-cd35fcbc58ea</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>设备找回: lan</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>9945b51a-d239-4ae1-86af-8cb787df482d</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:43</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>a5e56df2-d5bf-4c01-b246-110eec660b4c</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:43</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>转给自己:  -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>93fccead-9a8a-47c3-95de-5400d7036ccc</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:43</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>51ebde77-1d6c-4c64-b299-33e64b65f837</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:43</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>未找到标记丢失: lan</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>615ddfea-386b-4382-b65a-66f7319ffb68</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:44</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>82d37e0e-b4cb-40ef-b5bc-afb6e2afc498</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:44</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>设备找回: lan</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>e3245187-6e3e-4e5b-a53d-817f0295bd08</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:44</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>b8b784dc-ad22-41b5-85a4-2764e40ad62f</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:44</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>d3a33a42-8736-45bf-9bf8-7e472bf523f4</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:45</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>8e6f2046-3349-45c7-9bff-d222e7c939ac</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:45</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>转给自己: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>38851c23-9387-4344-b917-6c72c1ca9e14</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:45</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>6f2348ab-a631-4beb-b26b-5d5d102ac113</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:45</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>9632944c-bb56-40f3-9bda-bb269c8a764d</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:46</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>6b94e17d-7000-491b-959f-62a0d7d82d37</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:46</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>0069dc48-3881-4cfa-bcfe-3323fd704b14</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:47</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ad77e09d-a75b-49b4-a016-b10c0c075d30</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:47</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>f81e8860-8978-4294-ae66-5b20705f1786</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:47</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>a976bd89-2593-44f9-a170-aa00d2e2461b</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:47</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>24706375-0de3-4f81-9421-6d944c6ba514</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>6dd4fb43-5ed6-4de5-8db6-896e585557ba</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>设备找回: lan</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>f37b4877-0918-4268-9fe3-1cc4c4238691</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>31c0d849-bc0b-4bfe-975e-466da67061a1</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>cf86db7a-52b6-4280-83dc-abc498c372d9</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:19</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>72897044-e624-4a82-bd6d-a4b3939104ee</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:19</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>58285d3a-dec9-4113-9225-813c2d4cd726</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:19</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>fcfbe616-954a-4a5a-b12a-40260a128880</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:19</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>未找到标记丢失: lan</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>eb099aec-b977-4fa2-bd8b-d358a3f3ff75</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>e1c9734d-62e9-4ad3-bdf7-a796fb9d7c9a</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>80870f31-d6ef-4522-921a-006a5a62748a</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>19692bd6-c38f-470a-be14-6087850b7226</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>报备损坏: lan</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>b56df304-4b21-4348-9670-27f0010f51a9</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>3ba18655-50de-4b83-b0f1-07b6172df9c5</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>b241c89b-a874-43bb-9024-91db294ea780</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>3e6c6a90-47ee-4d37-a8d9-158939fb5cb1</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>报备丢失: lan</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>5140f54a-c0cf-48f1-80cb-9be61f3f630a</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:21</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>57815a24-ba55-41cf-ad7f-f42eed875e80</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:21</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>7045aee3-a734-475c-84a0-db1095586b63</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>44a0e140-89db-467a-8b6c-2354d5da0c6e</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>保管人代还: test</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>bfc6da32-acee-4b3c-aa33-d1c7124c53e2</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>a1bcb83a-5403-4042-a291-74b50e9ed97d</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>转借设备: 保管人 -&gt; test</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>4e661a42-f811-456d-814a-e10ef019fdba</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:29</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>eb86a25b-2714-4c08-a04a-96549619cd8a</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:29</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>保管人代还: test</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>04a34212-ed15-46d4-9da9-513f5b198820</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:29</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>531a3ec6-844d-4d15-b170-3f54b08492ec</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:29</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>报备损坏: lan</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>49a8580f-4ab5-41ba-8d2c-b2b85e941517</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:33</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>0a3c2d8d-2223-46d8-8173-fc0360c12e2d</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:33</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>修复自用: lan</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>e5514c65-8d43-443b-9fab-cbd7234b7609</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>1f56e892-b677-46e7-a416-9d8c0fd66392</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>转让保管人: lan -&gt; good</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>f194feaa-2021-4013-a883-590f2ce7f651</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>64a73a93-f195-4756-a318-8710b414ca79</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>c9b0151b-aa80-48c4-b7a8-e8c2f695722c</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ebd26652-bdca-4dc8-943b-fb1615fbc93f</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>保管人代还: lan</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>32dd2c2e-e41a-40f8-89a3-97aa81345678</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>dd1f974b-a644-4e9e-8ed8-9d3fa162bd01</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>设备找回自用: lan</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>bf607b40-25c1-48ce-9167-20fe1a6dde11</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>d5c326e9-874a-499e-91b8-250cd5a3076f</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>转借设备: 保管人 -&gt; test</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>983713ac-267e-4879-8f06-539a326f3563</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>f918e4e3-a0ae-4444-9637-0bc5bb938ba2</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>保管人代还: test</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>70ef25cd-9496-428e-880b-c72445c6887c</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>654be75a-57dc-48bd-bd43-b503a79c4f87</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>修复自用: lan</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>51ca0822-7381-4b2c-a59a-acea504a4b09</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:39</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>d7b95378-0260-4885-b3ca-4492963c6eae</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:39</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>设备找回转借: test</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>9a18ddaa-25d1-4017-b14e-b050f5e51903</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:44</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1932bcd9-a224-4225-a92a-786c337a1ba0</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:44</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>5d488e08-6271-491d-bbc5-3d002f44f18f</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:56</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>机械臂（大象机器人）</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>191f875d-081e-4f25-96d4-bc27565b30ef</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:56</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>转让保管人: lan -&gt; summer</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>机械臂（大象机器人）</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>6e294112-eb84-46bf-a591-4d19dd94429e</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:58</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>938f021a-7e9f-4a5a-b356-dcb716f8c0bc</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:58</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>转借设备: test -&gt; summer</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>9d52c2d0-ca9d-40e4-99b8-713e0235ef35</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:01</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>a9c594bb-984e-4fda-95dc-a0db1244a85c</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:01</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>转借设备: summer -&gt; test</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>a0463e1e-a344-47ce-8b47-19d0fcf41a07</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:04</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>红米K60 PRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>b34de5fe-47da-469a-ae4a-86cf124d0a7d</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:04</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>红米K60 PRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>c72495d4-1241-488e-9fd2-190f8ed737b6</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:05</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>红米K60 PRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>b9455656-8d2d-4280-9d5b-0a9baeae9245</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:05</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>红米K60 PRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>55308e36-0572-45e8-9cc2-b2ef033e78a1</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:21</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>e118ea5d-20e6-4270-ab58-32c24037f7af</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:21</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>0316d597-9df3-4684-8672-c6ba447fe6d2</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:23</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>b21a9043-794a-446e-b8af-11aa9bac25a1</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:23</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ee27e903-e45d-46ef-97a0-d29f5fe7bd59</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:23</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>00a966f6-97c0-499d-9340-07269799c385</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:23</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>f532c5f4-8fb1-4008-a0f5-fd0375b61316</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:24</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>20d53078-11e7-4544-a421-6299def925a9</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:24</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>581966ba-b35d-47ba-9499-d3d21cd572a9</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>c17b6f19-d654-4993-a655-0af1055b86e1</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>b4ec000b-83a5-4cfc-8509-a8e0f3470c59</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>d34e07a2-a7b7-4695-8495-6d8f614cccb7</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ac56b1d1-2923-41ae-afb6-d8f6dbb85a63</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>8e968257-073b-493f-a95b-7e98ec23481a</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>8b08ce3d-0223-4653-bfec-0cb72482a6cf</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>1d58538d-dfdc-40c6-a214-0187f56d5523</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>f93fef71-8062-4dd5-bab5-b6c0af34c913</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:26</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>9b78f53e-73c4-495f-8f91-f7b0766d4009</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:26</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>8cb95968-916b-41db-98ce-5bcf882bb543</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:33</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>3685b007-2841-4ee6-9e1a-19f608e30b9d</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:33</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>b316ad97-6462-4bbc-871c-2a25ce9a0ba0</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>6ac61ef3-8284-47af-9a6b-2beb43f1c56c</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>6d0d57e7-2bae-4179-9fd8-adae6904fdb6</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>ddd7294a-4792-472f-9fd3-3bc6a9532408</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>960352cb-d2fe-458e-a76a-c6f32969a426</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>58e5c90e-9d34-40a0-a60b-bb6231ef3035</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2b5d88fe-196b-484b-bc03-c496581e673d</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>78aba388-9f62-48f7-babf-3502b5502e77</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>d9bdcf4d-65da-41e1-88dc-a4a873834b1b</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>56698f0e-8827-4310-8036-11916add7fa6</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>9028d310-151c-4a3e-bd3d-9604375b9a0f</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>98507a64-a693-4b26-a7a7-e567f8438fa2</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>e727e7ce-d11d-4e9b-98d5-f55d60397b04</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>96dd41f9-b6ab-45f6-a886-c9fd19aa1fdd</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>cbbc330a-f3a2-433d-b1e1-0617a01b581c</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>986fa798-b0d2-4761-ac7d-6698b5052eea</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>4b64f1ad-787a-4830-99ba-30849a169dda</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>4c5ba03f-ea40-499e-b17c-a0a0b98f2881</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>未寄出还原: lan</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>b2fb1919-c64b-4b59-b5c2-3d79b7050528</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ab626582-2749-4d12-8783-8834e35d5be5</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>277f71d7-7047-4454-af9e-ab547e5e06c0</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>76f6953c-ae0a-48b0-9d56-c7ac325f275f</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>86119622-6f34-4e0d-b5c7-50f46e4c3411</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:25</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>机械臂（大象机器人）</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2cf114c1-b5d4-4d82-b8b1-6735fb3dab5e</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:25</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>机械臂（大象机器人）</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>fd466b3c-ae48-4b3e-97a8-a9712f6d235e</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:27</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>f0b757df-9ee5-4102-b43f-db055be2620b</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:27</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>5b17b226-16b4-4b84-af80-65e4d93e695b</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>95479a80-ad4a-4e0d-bdbb-905dba8bfffc</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>fa8ca0d3-ab76-4b45-8fea-ba7dc4f2d65b</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>8603a403-c2bb-4e57-ab95-f7eb58a1d1d2</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>4aab2959-dfa6-4aae-ba03-f1e06bd8e8a3</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>联通测试卡：18696137226</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>8847a554-b772-4474-8ae1-0a2343ae1145</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>联通测试卡：18696137226</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>0ed7e0da-543a-4461-be23-4b83c492de2e</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>保时捷</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>7b189c52-3c5d-4bed-8d27-aa1f71d2dcd7</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>保时捷</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>85ab078f-25f5-4eac-8fe3-5653be296a37</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>60537de6-8bae-494c-ac44-d1312f0267ea</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>续借设备: test, 1天</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>18c59140-3cbf-4d2e-a16f-2b4b2b3487f6</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>c2832e94-fd36-498e-bf40-ab1d3e7ca21e</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>未找到标记丢失: test</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>a0274447-98c9-4b68-b227-67078ee9fb86</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>5f33d1c9-a8bc-4e7c-8958-66b3de8e1bc3</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>cd89432d-1c14-4348-b3a6-9d6d3fe4e370</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>a1f2b3db-8731-4e74-8937-b2a23152ef44</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>转借设备: test -&gt; lan</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>71ea121c-aeb0-4cb4-a2b9-c6edaf0f76c1</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:57</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>测试卡17320507707</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>ae0ce785-d302-460d-9427-1d0ac2c5732b</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:57</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>测试卡17320507707</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2c28dd61-9367-4715-9acf-4cdee07833d6</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:01</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>7eba317e-e25b-4009-a6a7-c6201184514d</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:01</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>归还设备: test</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>f4c95eb8-349c-4e83-8b49-11261f93d615</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>LE- 
+XFZN01-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>1b093daf-4a3e-45f3-b38b-eef3ab0c855a</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>LE- 
+XFZN01-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>851cf966-d20b-4bac-ad54-cadb396eca97</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:46</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>df64d36f-78f7-407b-b6b7-8139f3eda29d</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:46</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>寄出设备: lan</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>1d6f5428-f754-41ce-98d2-91d63f97ee2f</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:00</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>eea27526-98c9-4dbb-8169-79c1bfbd7aef</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:00</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>归还设备: lan</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>11a75243-c448-4acf-b3f0-d09e06433949</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:01</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>0cd46053-3582-4ecc-829d-9d8ad49b245e</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:01</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>转借设备: lan -&gt; test</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>6db34113-08ac-426d-a97b-a777e7389003</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:19</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2ee09e77-e54b-466b-84b6-a10b3322a69d</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:19</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>1baf54e7-f8e7-419a-a484-7c4eb5f3b352</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:21</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>46bbdf32-0c21-40df-91f2-6cf2c74f2289</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:21</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>续借设备: lan, 1天</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>7c8d77c1-63b2-4474-a9e4-63386921e063</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>仪表-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>f7dda49c-a32f-4527-9ba7-0cee5dded67a</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>仪表-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>7f03665e-b24b-4a27-98bd-69761e73878f</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>仪表-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>7a219b0b-85b4-4f3c-acf1-75f21dddbc61</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>仪表-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>0fc17c6c-8e69-4580-9a4d-1b95a5e73257</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:48</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>兰博基尼</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>71be1b50-33ab-47e8-8e3f-15649a4e1546</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:48</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>兰博基尼</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>fcfe9b4c-6611-4926-9efe-85c0e16ec6e3</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:49</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>5a11bb9d-a5d4-4e22-a6b4-671772622fda</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:49</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>借出设备: lan</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E505"/>
+  <dimension ref="A1:E508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14126,6 +14126,87 @@
         </is>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>ef845a73-2d41-4499-afd4-de6d1cf7c92e</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2026-02-10 22:06</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>发送归还提醒给: test</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>手机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>6b6f4e3f-4b0d-4f81-8195-b184a2269b9b</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2026-02-10 22:07</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>设置管理员</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>d4eed99d-ed82-48dc-907f-8e0222b9cec7</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2026-02-10 22:07</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>取消管理员</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E508"/>
+  <dimension ref="A1:E540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14207,6 +14207,876 @@
         </is>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>6610d005-29b9-44b2-84f6-e1c20d89c7fa</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:18</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>502d4b01-1e56-4380-9b2f-5664a47d2252</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:18</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>强制归还: test</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2e588a03-11e2-4ab7-acb5-c794ce06f9fa</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:33</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>录入登记</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>5f72e05c-2eda-41ce-b373-35a65269aa35</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:00</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>5b453828-70d1-4971-8d8e-06477d117dcf</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:00</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>强制归还: test</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>59fa6222-d77f-4d1b-8977-3ce2fdcfe3fe</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:00</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>RTOS- 
+SSDQ21-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>97018909-8087-4527-877d-85c1500da3b9</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:00</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>RTOS- 
+SSDQ21-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>30e39c1d-5e03-4c94-83da-97d400f751f7</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:05</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>AE- 
+ZXCL04-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>46326b6b-a7f8-4d17-acb1-dff06ba8db40</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:05</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>AE- 
+ZXCL04-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>465e89bd-7dfd-4842-8b0e-4a379fac783d</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:21</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>49beae01-f789-49d1-b0a0-ab48d5ffed74</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:21</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>83f3b2f5-50ae-4a9c-b3fe-6960c593a559</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:26</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>AE- 
+SHHS02-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>6be831fa-3bba-40ca-b1ee-0f61a1f5b48c</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:26</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>AE- 
+SHHS02-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>cccc8e5d-7ce7-4121-98c7-2519c80c9f71</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:39</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>805eee54-03a4-4067-a5b1-93e361f4327f</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:39</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>aa9d8eb8-3db1-4456-bd46-50933f236ab0</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:53</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>仪表-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>c348af7b-c6a8-401b-b265-631220a0f2e9</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:53</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>仪表-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>1bab8268-daa6-49b0-b87a-cf1deb9988da</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:08</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>创建设备</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>DDPD-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>23405b87-90e1-4b28-a1db-f280e596315e</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:47</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>录入登记</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>仪表-023</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>58888117-314e-439c-b319-dcc5a4d72dd7</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:47</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>删除设备</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>042f92b4-2355-45ca-8b26-38ff22aa0aff</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:47</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>删除设备</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>仪表-006</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>ff80b8e8-451a-498a-a40e-4784939823ec</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>仪表-023</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>76f2dd09-a634-40fe-90d2-7e036ca5593a</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>仪表-023</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>1d16cccb-8681-4073-9c26-29042948e3fe</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>录入登记</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>仪表-005</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>d1242ec2-b30a-4b68-90a5-5be955ebb086</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>兰博基尼</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>9cd47bdf-2acc-43f3-bd11-6475f72aae95</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>强制归还: lan</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>兰博基尼</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2c0824a8-bbf5-47b6-baf4-ec1262713459</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>保时捷</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>7ca5be33-d388-4911-8655-a4d29cca0307</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>强制归还: test</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>保时捷</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>61aacf22-f184-478b-8f11-bc24e92b4c53</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:11</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>发送归还提醒给: test</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>e4247839-053b-49d2-b84d-9274fa1e2b66</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:14</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>状态变更: 已寄出 -&gt; 在库</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>LE- XFZN01-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>7cde1467-7d3f-4a0c-8d83-238201320b5c</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:58</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>编辑设备</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>fd787495-295e-4fb6-a6d8-8b43010ece33</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:02</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>批量导入1000个设备</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E540"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15077,6 +15077,62 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>4b21e9f2-a732-423d-976b-74c013effb3a</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:44</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>更新设备信息</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>LE- 
+XFZN01-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>3affbf13-984c-4ee5-8361-3bf6e7108322</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:44</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>借出设备: test</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>LE- 
+XFZN01-2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/操作日志表.xlsx
+++ b/excel_templates/操作日志表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E542"/>
+  <dimension ref="A1:E551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15133,6 +15133,249 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>1540cd2d-ca00-4168-8f24-4b1644d8a8c9</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:02</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>创建普通公告: 设备使用公告</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>5459c20f-12f7-468e-9137-96319ae94ca0</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:23</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>更新公告: 设备使用公告</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>d489bd9a-7cdb-454b-bec4-afda30f1cb53</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:24</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>创建普通公告: test</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>9b424f06-705e-424b-bea1-de1d84c1da01</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:24</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>下架公告: 设备使用公告</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>6ae219b4-3d6c-45ec-8ff3-0a7b506d1201</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:26</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>上架公告: 设备使用公告</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>f0a17cfc-327a-4780-8160-4afda869981a</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:36</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>创建普通公告: 1231231</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>dee01811-3742-46b5-951c-2675c9b36205</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:38</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>下架公告: 设备使用公告</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>e73ef856-2b81-486c-baf2-3eb403cf5fe0</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:38</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>上架公告: 设备使用公告</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>cbf406c1-a485-4779-b4d4-9e9959767b1c</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:59</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>再次公告: 设备使用公告 (版本1)</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>公告管理</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
